--- a/All Courses of KU 2018-19.xlsx
+++ b/All Courses of KU 2018-19.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="196">
   <si>
     <t>Medium</t>
   </si>
@@ -600,6 +600,12 @@
   </si>
   <si>
     <t>Hotel Management</t>
+  </si>
+  <si>
+    <t>Pharm. D</t>
+  </si>
+  <si>
+    <t>Pharm. PB</t>
   </si>
 </sst>
 </file>
@@ -738,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -807,23 +813,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -832,24 +823,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -861,29 +834,68 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2474,12 +2486,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -2496,10 +2508,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
-        <v>1</v>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="39">
+        <v>1</v>
+      </c>
+      <c r="B3" s="39" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2510,8 +2522,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="6" t="s">
         <v>24</v>
       </c>
@@ -2520,8 +2532,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="6" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2542,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
@@ -2540,8 +2552,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
@@ -2550,8 +2562,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="6" t="s">
         <v>26</v>
       </c>
@@ -2560,8 +2572,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="6" t="s">
         <v>26</v>
       </c>
@@ -2570,8 +2582,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
@@ -2580,8 +2592,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="6" t="s">
         <v>27</v>
       </c>
@@ -2590,8 +2602,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="6" t="s">
         <v>28</v>
       </c>
@@ -2600,8 +2612,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="6" t="s">
         <v>29</v>
       </c>
@@ -2610,8 +2622,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
@@ -2620,8 +2632,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="6" t="s">
         <v>30</v>
       </c>
@@ -2630,8 +2642,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="6" t="s">
         <v>31</v>
       </c>
@@ -2640,8 +2652,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="6" t="s">
         <v>32</v>
       </c>
@@ -2650,8 +2662,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="6" t="s">
         <v>33</v>
       </c>
@@ -2660,8 +2672,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="6" t="s">
         <v>33</v>
       </c>
@@ -2670,8 +2682,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="6" t="s">
         <v>34</v>
       </c>
@@ -2680,8 +2692,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="6" t="s">
         <v>34</v>
       </c>
@@ -2690,8 +2702,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="6" t="s">
         <v>35</v>
       </c>
@@ -2700,8 +2712,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="6" t="s">
         <v>35</v>
       </c>
@@ -2710,8 +2722,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="6" t="s">
         <v>36</v>
       </c>
@@ -2720,8 +2732,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="6" t="s">
         <v>37</v>
       </c>
@@ -2730,8 +2742,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="6" t="s">
         <v>38</v>
       </c>
@@ -2740,8 +2752,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="6" t="s">
         <v>39</v>
       </c>
@@ -2750,8 +2762,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="6" t="s">
         <v>40</v>
       </c>
@@ -2760,8 +2772,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="6" t="s">
         <v>41</v>
       </c>
@@ -2770,8 +2782,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="6" t="s">
         <v>41</v>
       </c>
@@ -2780,8 +2792,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="6" t="s">
         <v>42</v>
       </c>
@@ -2790,8 +2802,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="6" t="s">
         <v>43</v>
       </c>
@@ -2800,8 +2812,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="6" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2822,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="6" t="s">
         <v>45</v>
       </c>
@@ -2820,8 +2832,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="6" t="s">
         <v>45</v>
       </c>
@@ -2830,8 +2842,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="6" t="s">
         <v>45</v>
       </c>
@@ -2840,8 +2852,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="6" t="s">
         <v>46</v>
       </c>
@@ -2850,8 +2862,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="6" t="s">
         <v>47</v>
       </c>
@@ -2860,8 +2872,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="6" t="s">
         <v>48</v>
       </c>
@@ -2870,8 +2882,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
       <c r="C40" s="6" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +2892,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="6" t="s">
         <v>50</v>
       </c>
@@ -2890,8 +2902,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
       <c r="C42" s="6" t="s">
         <v>51</v>
       </c>
@@ -2900,8 +2912,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="6" t="s">
         <v>2</v>
       </c>
@@ -2910,8 +2922,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="6" t="s">
         <v>52</v>
       </c>
@@ -2920,8 +2932,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="6" t="s">
         <v>53</v>
       </c>
@@ -2930,8 +2942,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
       <c r="C46" s="6" t="s">
         <v>54</v>
       </c>
@@ -2940,8 +2952,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
       <c r="C47" s="6" t="s">
         <v>54</v>
       </c>
@@ -2964,10 +2976,10 @@
       </c>
     </row>
     <row r="49" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="25">
+      <c r="A49" s="39">
         <v>3</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -2978,8 +2990,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="6" t="s">
         <v>56</v>
       </c>
@@ -3002,10 +3014,10 @@
       </c>
     </row>
     <row r="52" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="25">
+      <c r="A52" s="39">
         <v>5</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="39" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -3016,8 +3028,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
       <c r="C53" s="6" t="s">
         <v>57</v>
       </c>
@@ -3026,8 +3038,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
       <c r="C54" s="6" t="s">
         <v>57</v>
       </c>
@@ -3036,8 +3048,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
       <c r="C55" s="6" t="s">
         <v>59</v>
       </c>
@@ -3046,8 +3058,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
       <c r="C56" s="6" t="s">
         <v>59</v>
       </c>
@@ -3056,8 +3068,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
       <c r="C57" s="6" t="s">
         <v>60</v>
       </c>
@@ -3066,8 +3078,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
+      <c r="A58" s="40"/>
+      <c r="B58" s="40"/>
       <c r="C58" s="6" t="s">
         <v>61</v>
       </c>
@@ -3076,8 +3088,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
+      <c r="A59" s="40"/>
+      <c r="B59" s="40"/>
       <c r="C59" s="6" t="s">
         <v>62</v>
       </c>
@@ -3086,8 +3098,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
+      <c r="A60" s="40"/>
+      <c r="B60" s="40"/>
       <c r="C60" s="6" t="s">
         <v>62</v>
       </c>
@@ -3096,8 +3108,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
       <c r="C61" s="6" t="s">
         <v>62</v>
       </c>
@@ -3106,8 +3118,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="40"/>
       <c r="C62" s="6" t="s">
         <v>63</v>
       </c>
@@ -3116,8 +3128,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="41"/>
       <c r="C63" s="6" t="s">
         <v>64</v>
       </c>
@@ -3126,10 +3138,10 @@
       </c>
     </row>
     <row r="64" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="25">
+      <c r="A64" s="39">
         <v>6</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="39" t="s">
         <v>10</v>
       </c>
       <c r="C64" s="6" t="s">
@@ -3140,8 +3152,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="26"/>
+      <c r="A65" s="40"/>
+      <c r="B65" s="40"/>
       <c r="C65" s="6" t="s">
         <v>66</v>
       </c>
@@ -3150,8 +3162,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
-      <c r="B66" s="26"/>
+      <c r="A66" s="40"/>
+      <c r="B66" s="40"/>
       <c r="C66" s="6" t="s">
         <v>67</v>
       </c>
@@ -3160,8 +3172,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
-      <c r="B67" s="26"/>
+      <c r="A67" s="40"/>
+      <c r="B67" s="40"/>
       <c r="C67" s="6" t="s">
         <v>68</v>
       </c>
@@ -3170,8 +3182,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
-      <c r="B68" s="26"/>
+      <c r="A68" s="40"/>
+      <c r="B68" s="40"/>
       <c r="C68" s="6" t="s">
         <v>69</v>
       </c>
@@ -3180,8 +3192,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
+      <c r="A69" s="40"/>
+      <c r="B69" s="40"/>
       <c r="C69" s="6" t="s">
         <v>70</v>
       </c>
@@ -3190,8 +3202,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
+      <c r="A70" s="40"/>
+      <c r="B70" s="40"/>
       <c r="C70" s="6" t="s">
         <v>71</v>
       </c>
@@ -3200,8 +3212,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
-      <c r="B71" s="26"/>
+      <c r="A71" s="40"/>
+      <c r="B71" s="40"/>
       <c r="C71" s="6" t="s">
         <v>72</v>
       </c>
@@ -3210,8 +3222,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
+      <c r="A72" s="40"/>
+      <c r="B72" s="40"/>
       <c r="C72" s="6" t="s">
         <v>73</v>
       </c>
@@ -3220,8 +3232,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
+      <c r="A73" s="40"/>
+      <c r="B73" s="40"/>
       <c r="C73" s="6" t="s">
         <v>74</v>
       </c>
@@ -3230,8 +3242,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="40"/>
       <c r="C74" s="6" t="s">
         <v>75</v>
       </c>
@@ -3240,8 +3252,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="26"/>
-      <c r="B75" s="26"/>
+      <c r="A75" s="40"/>
+      <c r="B75" s="40"/>
       <c r="C75" s="6" t="s">
         <v>75</v>
       </c>
@@ -3250,8 +3262,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="40"/>
       <c r="C76" s="6" t="s">
         <v>75</v>
       </c>
@@ -3260,8 +3272,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="40"/>
       <c r="C77" s="6" t="s">
         <v>76</v>
       </c>
@@ -3270,8 +3282,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="40"/>
       <c r="C78" s="6" t="s">
         <v>76</v>
       </c>
@@ -3280,8 +3292,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
-      <c r="B79" s="26"/>
+      <c r="A79" s="40"/>
+      <c r="B79" s="40"/>
       <c r="C79" s="6" t="s">
         <v>77</v>
       </c>
@@ -3290,8 +3302,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="26"/>
-      <c r="B80" s="26"/>
+      <c r="A80" s="40"/>
+      <c r="B80" s="40"/>
       <c r="C80" s="6" t="s">
         <v>78</v>
       </c>
@@ -3300,8 +3312,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
+      <c r="A81" s="40"/>
+      <c r="B81" s="40"/>
       <c r="C81" s="6" t="s">
         <v>78</v>
       </c>
@@ -3310,8 +3322,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="26"/>
-      <c r="B82" s="26"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="40"/>
       <c r="C82" s="6" t="s">
         <v>79</v>
       </c>
@@ -3320,8 +3332,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="26"/>
-      <c r="B83" s="26"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="40"/>
       <c r="C83" s="6" t="s">
         <v>79</v>
       </c>
@@ -3330,8 +3342,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="26"/>
-      <c r="B84" s="26"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="40"/>
       <c r="C84" s="6" t="s">
         <v>80</v>
       </c>
@@ -3340,8 +3352,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="26"/>
-      <c r="B85" s="26"/>
+      <c r="A85" s="40"/>
+      <c r="B85" s="40"/>
       <c r="C85" s="6" t="s">
         <v>81</v>
       </c>
@@ -3350,8 +3362,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="26"/>
-      <c r="B86" s="26"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="40"/>
       <c r="C86" s="6" t="s">
         <v>82</v>
       </c>
@@ -3360,8 +3372,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="26"/>
-      <c r="B87" s="26"/>
+      <c r="A87" s="40"/>
+      <c r="B87" s="40"/>
       <c r="C87" s="6" t="s">
         <v>82</v>
       </c>
@@ -3370,8 +3382,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="26"/>
-      <c r="B88" s="26"/>
+      <c r="A88" s="40"/>
+      <c r="B88" s="40"/>
       <c r="C88" s="6" t="s">
         <v>83</v>
       </c>
@@ -3380,8 +3392,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="26"/>
-      <c r="B89" s="26"/>
+      <c r="A89" s="40"/>
+      <c r="B89" s="40"/>
       <c r="C89" s="6" t="s">
         <v>84</v>
       </c>
@@ -3390,8 +3402,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="26"/>
-      <c r="B90" s="26"/>
+      <c r="A90" s="40"/>
+      <c r="B90" s="40"/>
       <c r="C90" s="6" t="s">
         <v>85</v>
       </c>
@@ -3400,8 +3412,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
-      <c r="B91" s="26"/>
+      <c r="A91" s="40"/>
+      <c r="B91" s="40"/>
       <c r="C91" s="6" t="s">
         <v>85</v>
       </c>
@@ -3410,8 +3422,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="26"/>
-      <c r="B92" s="26"/>
+      <c r="A92" s="40"/>
+      <c r="B92" s="40"/>
       <c r="C92" s="6" t="s">
         <v>86</v>
       </c>
@@ -3420,8 +3432,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="26"/>
-      <c r="B93" s="26"/>
+      <c r="A93" s="40"/>
+      <c r="B93" s="40"/>
       <c r="C93" s="6" t="s">
         <v>86</v>
       </c>
@@ -3430,8 +3442,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="26"/>
-      <c r="B94" s="26"/>
+      <c r="A94" s="40"/>
+      <c r="B94" s="40"/>
       <c r="C94" s="6" t="s">
         <v>87</v>
       </c>
@@ -3440,8 +3452,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="26"/>
-      <c r="B95" s="26"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="40"/>
       <c r="C95" s="6" t="s">
         <v>88</v>
       </c>
@@ -3450,8 +3462,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="26"/>
-      <c r="B96" s="26"/>
+      <c r="A96" s="40"/>
+      <c r="B96" s="40"/>
       <c r="C96" s="6" t="s">
         <v>88</v>
       </c>
@@ -3460,8 +3472,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="26"/>
-      <c r="B97" s="26"/>
+      <c r="A97" s="40"/>
+      <c r="B97" s="40"/>
       <c r="C97" s="6" t="s">
         <v>89</v>
       </c>
@@ -3470,8 +3482,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="26"/>
-      <c r="B98" s="26"/>
+      <c r="A98" s="40"/>
+      <c r="B98" s="40"/>
       <c r="C98" s="6" t="s">
         <v>90</v>
       </c>
@@ -3480,8 +3492,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="26"/>
-      <c r="B99" s="26"/>
+      <c r="A99" s="40"/>
+      <c r="B99" s="40"/>
       <c r="C99" s="6" t="s">
         <v>90</v>
       </c>
@@ -3490,8 +3502,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="26"/>
-      <c r="B100" s="26"/>
+      <c r="A100" s="40"/>
+      <c r="B100" s="40"/>
       <c r="C100" s="6" t="s">
         <v>91</v>
       </c>
@@ -3500,8 +3512,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="26"/>
-      <c r="B101" s="26"/>
+      <c r="A101" s="40"/>
+      <c r="B101" s="40"/>
       <c r="C101" s="6" t="s">
         <v>92</v>
       </c>
@@ -3510,8 +3522,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="26"/>
-      <c r="B102" s="26"/>
+      <c r="A102" s="40"/>
+      <c r="B102" s="40"/>
       <c r="C102" s="6" t="s">
         <v>93</v>
       </c>
@@ -3520,8 +3532,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="27"/>
-      <c r="B103" s="27"/>
+      <c r="A103" s="41"/>
+      <c r="B103" s="41"/>
       <c r="C103" s="6" t="s">
         <v>93</v>
       </c>
@@ -3530,12 +3542,12 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="24" t="s">
+      <c r="A108" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B108" s="24"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
     </row>
     <row r="109" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
@@ -3552,10 +3564,10 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="28">
-        <v>1</v>
-      </c>
-      <c r="B110" s="28" t="s">
+      <c r="A110" s="38">
+        <v>1</v>
+      </c>
+      <c r="B110" s="38" t="s">
         <v>15</v>
       </c>
       <c r="C110" s="8" t="s">
@@ -3566,8 +3578,8 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="28"/>
-      <c r="B111" s="28"/>
+      <c r="A111" s="38"/>
+      <c r="B111" s="38"/>
       <c r="C111" s="9" t="s">
         <v>23</v>
       </c>
@@ -3576,8 +3588,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="28"/>
-      <c r="B112" s="28"/>
+      <c r="A112" s="38"/>
+      <c r="B112" s="38"/>
       <c r="C112" s="8" t="s">
         <v>16</v>
       </c>
@@ -3586,8 +3598,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="28"/>
-      <c r="B113" s="28"/>
+      <c r="A113" s="38"/>
+      <c r="B113" s="38"/>
       <c r="C113" s="8" t="s">
         <v>2</v>
       </c>
@@ -3596,8 +3608,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="28"/>
-      <c r="B114" s="28"/>
+      <c r="A114" s="38"/>
+      <c r="B114" s="38"/>
       <c r="C114" s="8" t="s">
         <v>17</v>
       </c>
@@ -3606,8 +3618,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="28"/>
-      <c r="B115" s="28"/>
+      <c r="A115" s="38"/>
+      <c r="B115" s="38"/>
       <c r="C115" s="8" t="s">
         <v>18</v>
       </c>
@@ -3616,8 +3628,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="28"/>
-      <c r="B116" s="28"/>
+      <c r="A116" s="38"/>
+      <c r="B116" s="38"/>
       <c r="C116" s="8" t="s">
         <v>19</v>
       </c>
@@ -3626,8 +3638,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="28"/>
-      <c r="B117" s="28"/>
+      <c r="A117" s="38"/>
+      <c r="B117" s="38"/>
       <c r="C117" s="8" t="s">
         <v>20</v>
       </c>
@@ -3636,8 +3648,8 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="28"/>
-      <c r="B118" s="28"/>
+      <c r="A118" s="38"/>
+      <c r="B118" s="38"/>
       <c r="C118" s="8" t="s">
         <v>22</v>
       </c>
@@ -3646,8 +3658,8 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="28"/>
-      <c r="B119" s="28"/>
+      <c r="A119" s="38"/>
+      <c r="B119" s="38"/>
       <c r="C119" s="10" t="s">
         <v>21</v>
       </c>
@@ -3656,10 +3668,10 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="30">
-        <v>2</v>
-      </c>
-      <c r="B120" s="33" t="s">
+      <c r="A120" s="25">
+        <v>2</v>
+      </c>
+      <c r="B120" s="34" t="s">
         <v>94</v>
       </c>
       <c r="C120" s="10" t="s">
@@ -3670,8 +3682,8 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="31"/>
-      <c r="B121" s="34"/>
+      <c r="A121" s="26"/>
+      <c r="B121" s="35"/>
       <c r="C121" s="10" t="s">
         <v>57</v>
       </c>
@@ -3680,8 +3692,8 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="31"/>
-      <c r="B122" s="34"/>
+      <c r="A122" s="26"/>
+      <c r="B122" s="35"/>
       <c r="C122" s="8" t="s">
         <v>95</v>
       </c>
@@ -3690,8 +3702,8 @@
       </c>
     </row>
     <row r="123" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="31"/>
-      <c r="B123" s="34"/>
+      <c r="A123" s="26"/>
+      <c r="B123" s="35"/>
       <c r="C123" s="8" t="s">
         <v>96</v>
       </c>
@@ -3700,8 +3712,8 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="32"/>
-      <c r="B124" s="35"/>
+      <c r="A124" s="27"/>
+      <c r="B124" s="36"/>
       <c r="C124" s="8" t="s">
         <v>59</v>
       </c>
@@ -3794,10 +3806,10 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="30">
+      <c r="A131" s="25">
         <v>9</v>
       </c>
-      <c r="B131" s="29" t="s">
+      <c r="B131" s="33" t="s">
         <v>108</v>
       </c>
       <c r="C131" s="8" t="s">
@@ -3808,8 +3820,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="31"/>
-      <c r="B132" s="29"/>
+      <c r="A132" s="26"/>
+      <c r="B132" s="33"/>
       <c r="C132" s="8" t="s">
         <v>110</v>
       </c>
@@ -3818,8 +3830,8 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="31"/>
-      <c r="B133" s="29"/>
+      <c r="A133" s="26"/>
+      <c r="B133" s="33"/>
       <c r="C133" s="8" t="s">
         <v>111</v>
       </c>
@@ -3828,8 +3840,8 @@
       </c>
     </row>
     <row r="134" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="31"/>
-      <c r="B134" s="29"/>
+      <c r="A134" s="26"/>
+      <c r="B134" s="33"/>
       <c r="C134" s="8" t="s">
         <v>112</v>
       </c>
@@ -3838,8 +3850,8 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="31"/>
-      <c r="B135" s="29"/>
+      <c r="A135" s="26"/>
+      <c r="B135" s="33"/>
       <c r="C135" s="10" t="s">
         <v>113</v>
       </c>
@@ -3848,8 +3860,8 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="31"/>
-      <c r="B136" s="29"/>
+      <c r="A136" s="26"/>
+      <c r="B136" s="33"/>
       <c r="C136" s="10" t="s">
         <v>125</v>
       </c>
@@ -3858,8 +3870,8 @@
       </c>
     </row>
     <row r="137" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="31"/>
-      <c r="B137" s="29"/>
+      <c r="A137" s="26"/>
+      <c r="B137" s="33"/>
       <c r="C137" s="10" t="s">
         <v>126</v>
       </c>
@@ -3868,8 +3880,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="31"/>
-      <c r="B138" s="29"/>
+      <c r="A138" s="26"/>
+      <c r="B138" s="33"/>
       <c r="C138" s="10" t="s">
         <v>124</v>
       </c>
@@ -3878,8 +3890,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="31"/>
-      <c r="B139" s="29"/>
+      <c r="A139" s="26"/>
+      <c r="B139" s="33"/>
       <c r="C139" s="10" t="s">
         <v>123</v>
       </c>
@@ -3888,8 +3900,8 @@
       </c>
     </row>
     <row r="140" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="31"/>
-      <c r="B140" s="29"/>
+      <c r="A140" s="26"/>
+      <c r="B140" s="33"/>
       <c r="C140" s="10" t="s">
         <v>122</v>
       </c>
@@ -3898,8 +3910,8 @@
       </c>
     </row>
     <row r="141" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="31"/>
-      <c r="B141" s="29"/>
+      <c r="A141" s="26"/>
+      <c r="B141" s="33"/>
       <c r="C141" s="15" t="s">
         <v>121</v>
       </c>
@@ -3908,8 +3920,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="31"/>
-      <c r="B142" s="29"/>
+      <c r="A142" s="26"/>
+      <c r="B142" s="33"/>
       <c r="C142" s="8" t="s">
         <v>114</v>
       </c>
@@ -3918,8 +3930,8 @@
       </c>
     </row>
     <row r="143" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="31"/>
-      <c r="B143" s="29"/>
+      <c r="A143" s="26"/>
+      <c r="B143" s="33"/>
       <c r="C143" s="8" t="s">
         <v>115</v>
       </c>
@@ -3928,8 +3940,8 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="31"/>
-      <c r="B144" s="29"/>
+      <c r="A144" s="26"/>
+      <c r="B144" s="33"/>
       <c r="C144" s="8" t="s">
         <v>120</v>
       </c>
@@ -3938,8 +3950,8 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="31"/>
-      <c r="B145" s="29"/>
+      <c r="A145" s="26"/>
+      <c r="B145" s="33"/>
       <c r="C145" s="8" t="s">
         <v>117</v>
       </c>
@@ -3948,8 +3960,8 @@
       </c>
     </row>
     <row r="146" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="31"/>
-      <c r="B146" s="29"/>
+      <c r="A146" s="26"/>
+      <c r="B146" s="33"/>
       <c r="C146" s="8" t="s">
         <v>119</v>
       </c>
@@ -3958,8 +3970,8 @@
       </c>
     </row>
     <row r="147" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="31"/>
-      <c r="B147" s="29"/>
+      <c r="A147" s="26"/>
+      <c r="B147" s="33"/>
       <c r="C147" s="8" t="s">
         <v>116</v>
       </c>
@@ -3968,8 +3980,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="31"/>
-      <c r="B148" s="29"/>
+      <c r="A148" s="26"/>
+      <c r="B148" s="33"/>
       <c r="C148" s="8" t="s">
         <v>128</v>
       </c>
@@ -3978,8 +3990,8 @@
       </c>
     </row>
     <row r="149" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="31"/>
-      <c r="B149" s="29"/>
+      <c r="A149" s="26"/>
+      <c r="B149" s="33"/>
       <c r="C149" s="8" t="s">
         <v>118</v>
       </c>
@@ -3988,8 +4000,8 @@
       </c>
     </row>
     <row r="150" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="32"/>
-      <c r="B150" s="29"/>
+      <c r="A150" s="27"/>
+      <c r="B150" s="33"/>
       <c r="C150" s="10" t="s">
         <v>127</v>
       </c>
@@ -4013,12 +4025,12 @@
       <c r="D153" s="18"/>
     </row>
     <row r="155" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="36" t="s">
+      <c r="A155" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B155" s="36"/>
-      <c r="C155" s="36"/>
-      <c r="D155" s="36"/>
+      <c r="B155" s="24"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="24"/>
     </row>
     <row r="156" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
@@ -4035,10 +4047,10 @@
       </c>
     </row>
     <row r="157" spans="1:4" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="30">
-        <v>1</v>
-      </c>
-      <c r="B157" s="30" t="s">
+      <c r="A157" s="25">
+        <v>1</v>
+      </c>
+      <c r="B157" s="25" t="s">
         <v>131</v>
       </c>
       <c r="C157" s="9" t="s">
@@ -4049,8 +4061,8 @@
       </c>
     </row>
     <row r="158" spans="1:4" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="31"/>
-      <c r="B158" s="31"/>
+      <c r="A158" s="26"/>
+      <c r="B158" s="26"/>
       <c r="C158" s="9" t="s">
         <v>133</v>
       </c>
@@ -4059,8 +4071,8 @@
       </c>
     </row>
     <row r="159" spans="1:4" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="31"/>
-      <c r="B159" s="31"/>
+      <c r="A159" s="26"/>
+      <c r="B159" s="26"/>
       <c r="C159" s="9" t="s">
         <v>134</v>
       </c>
@@ -4069,8 +4081,8 @@
       </c>
     </row>
     <row r="160" spans="1:4" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="31"/>
-      <c r="B160" s="31"/>
+      <c r="A160" s="26"/>
+      <c r="B160" s="26"/>
       <c r="C160" s="9" t="s">
         <v>135</v>
       </c>
@@ -4079,8 +4091,8 @@
       </c>
     </row>
     <row r="161" spans="1:4" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="31"/>
-      <c r="B161" s="31"/>
+      <c r="A161" s="26"/>
+      <c r="B161" s="26"/>
       <c r="C161" s="9" t="s">
         <v>136</v>
       </c>
@@ -4089,8 +4101,8 @@
       </c>
     </row>
     <row r="162" spans="1:4" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="31"/>
-      <c r="B162" s="31"/>
+      <c r="A162" s="26"/>
+      <c r="B162" s="26"/>
       <c r="C162" s="9" t="s">
         <v>137</v>
       </c>
@@ -4099,8 +4111,8 @@
       </c>
     </row>
     <row r="163" spans="1:4" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="31"/>
-      <c r="B163" s="31"/>
+      <c r="A163" s="26"/>
+      <c r="B163" s="26"/>
       <c r="C163" s="9" t="s">
         <v>138</v>
       </c>
@@ -4109,8 +4121,8 @@
       </c>
     </row>
     <row r="164" spans="1:4" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="32"/>
-      <c r="B164" s="32"/>
+      <c r="A164" s="27"/>
+      <c r="B164" s="27"/>
       <c r="C164" s="9" t="s">
         <v>140</v>
       </c>
@@ -4119,10 +4131,10 @@
       </c>
     </row>
     <row r="165" spans="1:4" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="30">
-        <v>2</v>
-      </c>
-      <c r="B165" s="30" t="s">
+      <c r="A165" s="25">
+        <v>2</v>
+      </c>
+      <c r="B165" s="25" t="s">
         <v>141</v>
       </c>
       <c r="C165" s="9" t="s">
@@ -4133,8 +4145,8 @@
       </c>
     </row>
     <row r="166" spans="1:4" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="31"/>
-      <c r="B166" s="31"/>
+      <c r="A166" s="26"/>
+      <c r="B166" s="26"/>
       <c r="C166" s="9" t="s">
         <v>142</v>
       </c>
@@ -4143,8 +4155,8 @@
       </c>
     </row>
     <row r="167" spans="1:4" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="31"/>
-      <c r="B167" s="31"/>
+      <c r="A167" s="26"/>
+      <c r="B167" s="26"/>
       <c r="C167" s="20" t="s">
         <v>143</v>
       </c>
@@ -4153,8 +4165,8 @@
       </c>
     </row>
     <row r="168" spans="1:4" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="31"/>
-      <c r="B168" s="31"/>
+      <c r="A168" s="26"/>
+      <c r="B168" s="26"/>
       <c r="C168" s="9" t="s">
         <v>144</v>
       </c>
@@ -4163,8 +4175,8 @@
       </c>
     </row>
     <row r="169" spans="1:4" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="31"/>
-      <c r="B169" s="31"/>
+      <c r="A169" s="26"/>
+      <c r="B169" s="26"/>
       <c r="C169" s="9" t="s">
         <v>145</v>
       </c>
@@ -4173,8 +4185,8 @@
       </c>
     </row>
     <row r="170" spans="1:4" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="31"/>
-      <c r="B170" s="31"/>
+      <c r="A170" s="26"/>
+      <c r="B170" s="26"/>
       <c r="C170" s="9" t="s">
         <v>146</v>
       </c>
@@ -4183,8 +4195,8 @@
       </c>
     </row>
     <row r="171" spans="1:4" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="31"/>
-      <c r="B171" s="31"/>
+      <c r="A171" s="26"/>
+      <c r="B171" s="26"/>
       <c r="C171" s="9" t="s">
         <v>147</v>
       </c>
@@ -4193,8 +4205,8 @@
       </c>
     </row>
     <row r="172" spans="1:4" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="31"/>
-      <c r="B172" s="31"/>
+      <c r="A172" s="26"/>
+      <c r="B172" s="26"/>
       <c r="C172" s="9" t="s">
         <v>148</v>
       </c>
@@ -4203,8 +4215,8 @@
       </c>
     </row>
     <row r="173" spans="1:4" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="32"/>
-      <c r="B173" s="32"/>
+      <c r="A173" s="27"/>
+      <c r="B173" s="27"/>
       <c r="C173" s="9" t="s">
         <v>149</v>
       </c>
@@ -4213,12 +4225,12 @@
       </c>
     </row>
     <row r="178" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="36" t="s">
+      <c r="A178" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B178" s="36"/>
-      <c r="C178" s="36"/>
-      <c r="D178" s="36"/>
+      <c r="B178" s="24"/>
+      <c r="C178" s="24"/>
+      <c r="D178" s="24"/>
     </row>
     <row r="179" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
@@ -4235,10 +4247,10 @@
       </c>
     </row>
     <row r="180" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="38">
-        <v>1</v>
-      </c>
-      <c r="B180" s="37" t="s">
+      <c r="A180" s="32">
+        <v>1</v>
+      </c>
+      <c r="B180" s="31" t="s">
         <v>152</v>
       </c>
       <c r="C180" s="9" t="s">
@@ -4249,8 +4261,8 @@
       </c>
     </row>
     <row r="181" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="38"/>
-      <c r="B181" s="37"/>
+      <c r="A181" s="32"/>
+      <c r="B181" s="31"/>
       <c r="C181" s="9" t="s">
         <v>154</v>
       </c>
@@ -4259,10 +4271,10 @@
       </c>
     </row>
     <row r="182" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="38">
-        <v>2</v>
-      </c>
-      <c r="B182" s="37" t="s">
+      <c r="A182" s="32">
+        <v>2</v>
+      </c>
+      <c r="B182" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C182" s="20" t="s">
@@ -4273,8 +4285,8 @@
       </c>
     </row>
     <row r="183" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="38"/>
-      <c r="B183" s="37"/>
+      <c r="A183" s="32"/>
+      <c r="B183" s="31"/>
       <c r="C183" s="20" t="s">
         <v>157</v>
       </c>
@@ -4283,8 +4295,8 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="38"/>
-      <c r="B184" s="37"/>
+      <c r="A184" s="32"/>
+      <c r="B184" s="31"/>
       <c r="C184" s="20" t="s">
         <v>158</v>
       </c>
@@ -4293,8 +4305,8 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="38"/>
-      <c r="B185" s="37"/>
+      <c r="A185" s="32"/>
+      <c r="B185" s="31"/>
       <c r="C185" s="20" t="s">
         <v>159</v>
       </c>
@@ -4303,8 +4315,8 @@
       </c>
     </row>
     <row r="186" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="38"/>
-      <c r="B186" s="37"/>
+      <c r="A186" s="32"/>
+      <c r="B186" s="31"/>
       <c r="C186" s="21" t="s">
         <v>160</v>
       </c>
@@ -4313,8 +4325,8 @@
       </c>
     </row>
     <row r="187" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="38"/>
-      <c r="B187" s="37"/>
+      <c r="A187" s="32"/>
+      <c r="B187" s="31"/>
       <c r="C187" s="21" t="s">
         <v>161</v>
       </c>
@@ -4323,12 +4335,12 @@
       </c>
     </row>
     <row r="192" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="36" t="s">
+      <c r="A192" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="B192" s="36"/>
-      <c r="C192" s="36"/>
-      <c r="D192" s="36"/>
+      <c r="B192" s="24"/>
+      <c r="C192" s="24"/>
+      <c r="D192" s="24"/>
     </row>
     <row r="193" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
@@ -4359,10 +4371,10 @@
       </c>
     </row>
     <row r="195" spans="1:4" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="30">
-        <v>2</v>
-      </c>
-      <c r="B195" s="39" t="s">
+      <c r="A195" s="25">
+        <v>2</v>
+      </c>
+      <c r="B195" s="28" t="s">
         <v>165</v>
       </c>
       <c r="C195" s="9" t="s">
@@ -4373,8 +4385,8 @@
       </c>
     </row>
     <row r="196" spans="1:4" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="31"/>
-      <c r="B196" s="40"/>
+      <c r="A196" s="26"/>
+      <c r="B196" s="29"/>
       <c r="C196" s="9" t="s">
         <v>167</v>
       </c>
@@ -4383,8 +4395,8 @@
       </c>
     </row>
     <row r="197" spans="1:4" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="31"/>
-      <c r="B197" s="40"/>
+      <c r="A197" s="26"/>
+      <c r="B197" s="29"/>
       <c r="C197" s="9" t="s">
         <v>168</v>
       </c>
@@ -4393,8 +4405,8 @@
       </c>
     </row>
     <row r="198" spans="1:4" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="31"/>
-      <c r="B198" s="40"/>
+      <c r="A198" s="26"/>
+      <c r="B198" s="29"/>
       <c r="C198" s="9" t="s">
         <v>169</v>
       </c>
@@ -4403,8 +4415,8 @@
       </c>
     </row>
     <row r="199" spans="1:4" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="31"/>
-      <c r="B199" s="40"/>
+      <c r="A199" s="26"/>
+      <c r="B199" s="29"/>
       <c r="C199" s="20" t="s">
         <v>174</v>
       </c>
@@ -4413,8 +4425,8 @@
       </c>
     </row>
     <row r="200" spans="1:4" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="31"/>
-      <c r="B200" s="40"/>
+      <c r="A200" s="26"/>
+      <c r="B200" s="29"/>
       <c r="C200" s="9" t="s">
         <v>170</v>
       </c>
@@ -4423,8 +4435,8 @@
       </c>
     </row>
     <row r="201" spans="1:4" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="31"/>
-      <c r="B201" s="40"/>
+      <c r="A201" s="26"/>
+      <c r="B201" s="29"/>
       <c r="C201" s="9" t="s">
         <v>171</v>
       </c>
@@ -4433,8 +4445,8 @@
       </c>
     </row>
     <row r="202" spans="1:4" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="31"/>
-      <c r="B202" s="40"/>
+      <c r="A202" s="26"/>
+      <c r="B202" s="29"/>
       <c r="C202" s="19" t="s">
         <v>172</v>
       </c>
@@ -4443,8 +4455,8 @@
       </c>
     </row>
     <row r="203" spans="1:4" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="31"/>
-      <c r="B203" s="40"/>
+      <c r="A203" s="26"/>
+      <c r="B203" s="29"/>
       <c r="C203" s="22" t="s">
         <v>169</v>
       </c>
@@ -4453,8 +4465,8 @@
       </c>
     </row>
     <row r="204" spans="1:4" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="32"/>
-      <c r="B204" s="41"/>
+      <c r="A204" s="27"/>
+      <c r="B204" s="30"/>
       <c r="C204" s="22" t="s">
         <v>173</v>
       </c>
@@ -4463,12 +4475,12 @@
       </c>
     </row>
     <row r="208" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="36" t="s">
+      <c r="A208" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="B208" s="36"/>
-      <c r="C208" s="36"/>
-      <c r="D208" s="36"/>
+      <c r="B208" s="24"/>
+      <c r="C208" s="24"/>
+      <c r="D208" s="24"/>
     </row>
     <row r="209" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
@@ -4509,12 +4521,12 @@
       </c>
     </row>
     <row r="215" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="36" t="s">
+      <c r="A215" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="B215" s="36"/>
-      <c r="C215" s="36"/>
-      <c r="D215" s="36"/>
+      <c r="B215" s="24"/>
+      <c r="C215" s="24"/>
+      <c r="D215" s="24"/>
     </row>
     <row r="216" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
@@ -4555,12 +4567,12 @@
       </c>
     </row>
     <row r="223" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="36" t="s">
+      <c r="A223" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="B223" s="36"/>
-      <c r="C223" s="36"/>
-      <c r="D223" s="36"/>
+      <c r="B223" s="24"/>
+      <c r="C223" s="24"/>
+      <c r="D223" s="24"/>
     </row>
     <row r="224" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
@@ -4589,12 +4601,12 @@
       </c>
     </row>
     <row r="229" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="36" t="s">
+      <c r="A229" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="B229" s="36"/>
-      <c r="C229" s="36"/>
-      <c r="D229" s="36"/>
+      <c r="B229" s="24"/>
+      <c r="C229" s="24"/>
+      <c r="D229" s="24"/>
     </row>
     <row r="230" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
@@ -4623,12 +4635,12 @@
       </c>
     </row>
     <row r="235" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="36" t="s">
+      <c r="A235" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="B235" s="36"/>
-      <c r="C235" s="36"/>
-      <c r="D235" s="36"/>
+      <c r="B235" s="24"/>
+      <c r="C235" s="24"/>
+      <c r="D235" s="24"/>
     </row>
     <row r="236" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
@@ -4658,14 +4670,23 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A223:D223"/>
-    <mergeCell ref="A229:D229"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A192:D192"/>
-    <mergeCell ref="A195:A204"/>
-    <mergeCell ref="B195:B204"/>
-    <mergeCell ref="A208:D208"/>
-    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:B47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B52:B63"/>
+    <mergeCell ref="B64:B103"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="B110:B119"/>
+    <mergeCell ref="A110:A119"/>
+    <mergeCell ref="A3:A47"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A52:A63"/>
+    <mergeCell ref="A64:A103"/>
+    <mergeCell ref="B131:B150"/>
+    <mergeCell ref="A131:A150"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="B120:B124"/>
+    <mergeCell ref="A155:D155"/>
     <mergeCell ref="B180:B181"/>
     <mergeCell ref="B182:B187"/>
     <mergeCell ref="A182:A187"/>
@@ -4675,23 +4696,14 @@
     <mergeCell ref="A165:A173"/>
     <mergeCell ref="A157:A164"/>
     <mergeCell ref="A178:D178"/>
-    <mergeCell ref="B131:B150"/>
-    <mergeCell ref="A131:A150"/>
-    <mergeCell ref="A120:A124"/>
-    <mergeCell ref="B120:B124"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="B110:B119"/>
-    <mergeCell ref="A110:A119"/>
-    <mergeCell ref="A3:A47"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A52:A63"/>
-    <mergeCell ref="A64:A103"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:B47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B52:B63"/>
-    <mergeCell ref="B64:B103"/>
+    <mergeCell ref="A223:D223"/>
+    <mergeCell ref="A229:D229"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A192:D192"/>
+    <mergeCell ref="A195:A204"/>
+    <mergeCell ref="B195:B204"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A215:D215"/>
   </mergeCells>
   <pageMargins left="0.79" right="0.26" top="0.34" bottom="0.5" header="0.3" footer="0.48"/>
   <pageSetup paperSize="5" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4701,10 +4713,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E185"/>
+  <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4717,3152 +4729,3185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="45">
-        <v>1</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="45" t="s">
+      <c r="A1" s="43">
+        <v>1</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="45">
-        <v>2</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="45" t="s">
+      <c r="A2" s="43">
+        <v>2</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="45">
+      <c r="A3" s="43">
         <v>3</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="43">
         <v>4</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+      <c r="A5" s="43">
         <v>5</v>
       </c>
-      <c r="B5" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C5" s="45" t="s">
+      <c r="B5" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+      <c r="A6" s="43">
         <v>6</v>
       </c>
-      <c r="B6" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="45" t="s">
+      <c r="B6" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="43">
         <v>7</v>
       </c>
-      <c r="B7" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="45" t="s">
+      <c r="B7" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="A8" s="43">
         <v>8</v>
       </c>
-      <c r="B8" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
+      <c r="A9" s="43">
         <v>9</v>
       </c>
-      <c r="B9" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="45" t="s">
+      <c r="B9" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="45">
+      <c r="A10" s="43">
         <v>10</v>
       </c>
-      <c r="B10" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" s="45" t="s">
+      <c r="B10" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
+      <c r="A11" s="43">
         <v>11</v>
       </c>
-      <c r="B11" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="45" t="s">
+      <c r="B11" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="45">
+      <c r="A12" s="43">
         <v>12</v>
       </c>
-      <c r="B12" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C12" s="45" t="s">
+      <c r="B12" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
+      <c r="A13" s="43">
         <v>13</v>
       </c>
-      <c r="B13" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" s="45" t="s">
+      <c r="B13" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+      <c r="A14" s="43">
         <v>14</v>
       </c>
-      <c r="B14" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="45" t="s">
+      <c r="B14" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
+      <c r="A15" s="43">
         <v>15</v>
       </c>
-      <c r="B15" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="45" t="s">
+      <c r="B15" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
+      <c r="A16" s="43">
         <v>16</v>
       </c>
-      <c r="B16" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="45" t="s">
+      <c r="B16" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
+      <c r="A17" s="43">
         <v>17</v>
       </c>
-      <c r="B17" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C17" s="45" t="s">
+      <c r="B17" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="45">
+      <c r="A18" s="43">
         <v>18</v>
       </c>
-      <c r="B18" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C18" s="45" t="s">
+      <c r="B18" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="45">
+      <c r="A19" s="43">
         <v>19</v>
       </c>
-      <c r="B19" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="45" t="s">
+      <c r="B19" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="45">
+      <c r="A20" s="43">
         <v>20</v>
       </c>
-      <c r="B20" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="45" t="s">
+      <c r="B20" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="45">
+      <c r="A21" s="43">
         <v>21</v>
       </c>
-      <c r="B21" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" s="45" t="s">
+      <c r="B21" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="45">
+      <c r="A22" s="43">
         <v>22</v>
       </c>
-      <c r="B22" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="45" t="s">
+      <c r="B22" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="45">
+      <c r="A23" s="43">
         <v>23</v>
       </c>
-      <c r="B23" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C23" s="45" t="s">
+      <c r="B23" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="45">
+      <c r="E23" s="43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="43">
         <v>24</v>
       </c>
-      <c r="B24" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C24" s="45" t="s">
+      <c r="B24" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="45">
+      <c r="A25" s="43">
         <v>25</v>
       </c>
-      <c r="B25" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C25" s="45" t="s">
+      <c r="B25" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="45">
+      <c r="A26" s="43">
         <v>26</v>
       </c>
-      <c r="B26" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C26" s="45" t="s">
+      <c r="B26" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="45">
+      <c r="A27" s="43">
         <v>27</v>
       </c>
-      <c r="B27" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C27" s="45" t="s">
+      <c r="B27" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="45">
+      <c r="A28" s="43">
         <v>28</v>
       </c>
-      <c r="B28" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C28" s="45" t="s">
+      <c r="B28" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="45">
+      <c r="A29" s="43">
         <v>29</v>
       </c>
-      <c r="B29" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="45" t="s">
+      <c r="B29" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="45">
+      <c r="A30" s="43">
         <v>30</v>
       </c>
-      <c r="B30" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C30" s="45" t="s">
+      <c r="B30" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="45">
+      <c r="E30" s="43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="43">
         <v>31</v>
       </c>
-      <c r="B31" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C31" s="45" t="s">
+      <c r="B31" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="45">
+      <c r="A32" s="43">
         <v>32</v>
       </c>
-      <c r="B32" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C32" s="45" t="s">
+      <c r="B32" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="45">
+      <c r="A33" s="43">
         <v>33</v>
       </c>
-      <c r="B33" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C33" s="45" t="s">
+      <c r="B33" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="45">
+      <c r="A34" s="43">
         <v>34</v>
       </c>
-      <c r="B34" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C34" s="45" t="s">
+      <c r="B34" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="45">
+      <c r="A35" s="43">
         <v>35</v>
       </c>
-      <c r="B35" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C35" s="45" t="s">
+      <c r="B35" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="45">
+      <c r="A36" s="43">
         <v>36</v>
       </c>
-      <c r="B36" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C36" s="45" t="s">
+      <c r="B36" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="45">
+      <c r="A37" s="43">
         <v>37</v>
       </c>
-      <c r="B37" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C37" s="45" t="s">
+      <c r="B37" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="45">
+      <c r="A38" s="43">
         <v>38</v>
       </c>
-      <c r="B38" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C38" s="45" t="s">
+      <c r="B38" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="45">
+      <c r="A39" s="43">
         <v>39</v>
       </c>
-      <c r="B39" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C39" s="45" t="s">
+      <c r="B39" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="45">
+      <c r="A40" s="43">
         <v>40</v>
       </c>
-      <c r="B40" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C40" s="45" t="s">
+      <c r="B40" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="45">
+      <c r="A41" s="43">
         <v>41</v>
       </c>
-      <c r="B41" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C41" s="45" t="s">
+      <c r="B41" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C41" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="5" t="s">
+      <c r="D41" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="45">
+      <c r="A42" s="43">
         <v>42</v>
       </c>
-      <c r="B42" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C42" s="45" t="s">
+      <c r="B42" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="45">
+      <c r="A43" s="43">
         <v>43</v>
       </c>
-      <c r="B43" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C43" s="45" t="s">
+      <c r="B43" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="45">
+      <c r="A44" s="43">
         <v>44</v>
       </c>
-      <c r="B44" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C44" s="45" t="s">
+      <c r="B44" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="45">
+      <c r="A45" s="43">
         <v>45</v>
       </c>
-      <c r="B45" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C45" s="45" t="s">
+      <c r="B45" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="45">
+      <c r="A46" s="43">
         <v>46</v>
       </c>
-      <c r="B46" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C46" s="12" t="s">
+      <c r="B46" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="45">
+      <c r="A47" s="43">
         <v>47</v>
       </c>
-      <c r="B47" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C47" s="47" t="s">
+      <c r="B47" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="45">
+      <c r="A48" s="43">
         <v>48</v>
       </c>
-      <c r="B48" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="6" t="s">
+      <c r="B48" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="45">
+      <c r="A49" s="43">
         <v>49</v>
       </c>
-      <c r="B49" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C49" s="12" t="s">
+      <c r="B49" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="45">
+      <c r="A50" s="43">
         <v>50</v>
       </c>
-      <c r="B50" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C50" s="45" t="s">
+      <c r="B50" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="45">
+      <c r="A51" s="43">
         <v>51</v>
       </c>
-      <c r="B51" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C51" s="45" t="s">
+      <c r="B51" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="45">
+      <c r="A52" s="43">
         <v>52</v>
       </c>
-      <c r="B52" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C52" s="45" t="s">
+      <c r="B52" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="45">
+      <c r="A53" s="43">
         <v>53</v>
       </c>
-      <c r="B53" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C53" s="45" t="s">
+      <c r="B53" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="45">
+      <c r="A54" s="43">
         <v>54</v>
       </c>
-      <c r="B54" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C54" s="45" t="s">
+      <c r="B54" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="45">
+      <c r="A55" s="43">
         <v>55</v>
       </c>
-      <c r="B55" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C55" s="45" t="s">
+      <c r="B55" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="45">
+      <c r="A56" s="43">
         <v>56</v>
       </c>
-      <c r="B56" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C56" s="45" t="s">
+      <c r="B56" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="45">
+      <c r="A57" s="43">
         <v>57</v>
       </c>
-      <c r="B57" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C57" s="45" t="s">
+      <c r="B57" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="45">
+      <c r="A58" s="43">
         <v>58</v>
       </c>
-      <c r="B58" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C58" s="45" t="s">
+      <c r="B58" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="45">
+      <c r="A59" s="43">
         <v>59</v>
       </c>
-      <c r="B59" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C59" s="45" t="s">
+      <c r="B59" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C59" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="45">
+      <c r="A60" s="43">
         <v>60</v>
       </c>
-      <c r="B60" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C60" s="45" t="s">
+      <c r="B60" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="45">
+      <c r="A61" s="43">
         <v>61</v>
       </c>
-      <c r="B61" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C61" s="45" t="s">
+      <c r="B61" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="45">
+      <c r="A62" s="43">
         <v>62</v>
       </c>
-      <c r="B62" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C62" s="45" t="s">
+      <c r="B62" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="45">
+      <c r="A63" s="43">
         <v>63</v>
       </c>
-      <c r="B63" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C63" s="45" t="s">
+      <c r="B63" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="45">
+      <c r="A64" s="43">
         <v>64</v>
       </c>
-      <c r="B64" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C64" s="45" t="s">
+      <c r="B64" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="45">
+      <c r="A65" s="43">
         <v>65</v>
       </c>
-      <c r="B65" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C65" s="45" t="s">
+      <c r="B65" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="45">
+      <c r="A66" s="43">
         <v>66</v>
       </c>
-      <c r="B66" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C66" s="45" t="s">
+      <c r="B66" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="45">
+      <c r="A67" s="43">
         <v>67</v>
       </c>
-      <c r="B67" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C67" s="45" t="s">
+      <c r="B67" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="45">
+      <c r="A68" s="43">
         <v>68</v>
       </c>
-      <c r="B68" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C68" s="45" t="s">
+      <c r="B68" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C68" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="45">
+      <c r="A69" s="43">
         <v>69</v>
       </c>
-      <c r="B69" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C69" s="45" t="s">
+      <c r="B69" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="45">
+      <c r="A70" s="43">
         <v>70</v>
       </c>
-      <c r="B70" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C70" s="45" t="s">
+      <c r="B70" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="45">
+      <c r="A71" s="43">
         <v>71</v>
       </c>
-      <c r="B71" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C71" s="45" t="s">
+      <c r="B71" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="45">
+      <c r="A72" s="43">
         <v>72</v>
       </c>
-      <c r="B72" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C72" s="45" t="s">
+      <c r="B72" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C72" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="45">
+      <c r="A73" s="43">
         <v>73</v>
       </c>
-      <c r="B73" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C73" s="45" t="s">
+      <c r="B73" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="45">
+      <c r="A74" s="43">
         <v>74</v>
       </c>
-      <c r="B74" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C74" s="45" t="s">
+      <c r="B74" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="45">
+      <c r="A75" s="43">
         <v>75</v>
       </c>
-      <c r="B75" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C75" s="45" t="s">
+      <c r="B75" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="45">
+      <c r="A76" s="43">
         <v>76</v>
       </c>
-      <c r="B76" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C76" s="45" t="s">
+      <c r="B76" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C76" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="45">
+      <c r="A77" s="43">
         <v>77</v>
       </c>
-      <c r="B77" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C77" s="45" t="s">
+      <c r="B77" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C77" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="45">
+      <c r="A78" s="43">
         <v>78</v>
       </c>
-      <c r="B78" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C78" s="45" t="s">
+      <c r="B78" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C78" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="45">
+      <c r="A79" s="43">
         <v>79</v>
       </c>
-      <c r="B79" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C79" s="45" t="s">
+      <c r="B79" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="45">
+      <c r="A80" s="43">
         <v>80</v>
       </c>
-      <c r="B80" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C80" s="45" t="s">
+      <c r="B80" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C80" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E80" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="45">
+      <c r="A81" s="43">
         <v>81</v>
       </c>
-      <c r="B81" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C81" s="45" t="s">
+      <c r="B81" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C81" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="45">
+      <c r="A82" s="43">
         <v>82</v>
       </c>
-      <c r="B82" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C82" s="45" t="s">
+      <c r="B82" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="45">
+      <c r="A83" s="43">
         <v>83</v>
       </c>
-      <c r="B83" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C83" s="45" t="s">
+      <c r="B83" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E83" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="45">
+      <c r="A84" s="43">
         <v>84</v>
       </c>
-      <c r="B84" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C84" s="45" t="s">
+      <c r="B84" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C84" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E84" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="45">
+      <c r="A85" s="43">
         <v>85</v>
       </c>
-      <c r="B85" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C85" s="45" t="s">
+      <c r="B85" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C85" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="45">
+      <c r="A86" s="43">
         <v>86</v>
       </c>
-      <c r="B86" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C86" s="45" t="s">
+      <c r="B86" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E86" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="45">
+      <c r="A87" s="43">
         <v>87</v>
       </c>
-      <c r="B87" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C87" s="45" t="s">
+      <c r="B87" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E87" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="45">
+      <c r="A88" s="43">
         <v>88</v>
       </c>
-      <c r="B88" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C88" s="45" t="s">
+      <c r="B88" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E88" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="45">
+      <c r="A89" s="43">
         <v>89</v>
       </c>
-      <c r="B89" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C89" s="45" t="s">
+      <c r="B89" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C89" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E89" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="45">
+      <c r="A90" s="43">
         <v>90</v>
       </c>
-      <c r="B90" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C90" s="45" t="s">
+      <c r="B90" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C90" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E90" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="45">
+      <c r="A91" s="43">
         <v>91</v>
       </c>
-      <c r="B91" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C91" s="45" t="s">
+      <c r="B91" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C91" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E91" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="45">
+      <c r="A92" s="43">
         <v>92</v>
       </c>
-      <c r="B92" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C92" s="45" t="s">
+      <c r="B92" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E92" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="45">
+      <c r="A93" s="43">
         <v>93</v>
       </c>
-      <c r="B93" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C93" s="45" t="s">
+      <c r="B93" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E93" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="45">
+      <c r="A94" s="43">
         <v>94</v>
       </c>
-      <c r="B94" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C94" s="45" t="s">
+      <c r="B94" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C94" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E94" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="45">
+      <c r="A95" s="43">
         <v>95</v>
       </c>
-      <c r="B95" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C95" s="45" t="s">
+      <c r="B95" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C95" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="45">
+      <c r="A96" s="43">
         <v>96</v>
       </c>
-      <c r="B96" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C96" s="45" t="s">
+      <c r="B96" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C96" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E96" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="45">
+      <c r="A97" s="43">
         <v>97</v>
       </c>
-      <c r="B97" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C97" s="45" t="s">
+      <c r="B97" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="45">
+      <c r="A98" s="43">
         <v>98</v>
       </c>
-      <c r="B98" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C98" s="45" t="s">
+      <c r="B98" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C98" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E98" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="45">
+      <c r="A99" s="43">
         <v>99</v>
       </c>
-      <c r="B99" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C99" s="45" t="s">
+      <c r="B99" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C99" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D99" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="E99" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="45">
+      <c r="A100" s="43">
         <v>100</v>
       </c>
-      <c r="B100" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C100" s="45" t="s">
+      <c r="B100" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C100" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E100" s="43" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="45">
+      <c r="A101" s="43">
         <v>101</v>
       </c>
-      <c r="B101" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="C101" s="45" t="s">
+      <c r="B101" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C101" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E101" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="45">
+      <c r="A102" s="43">
         <v>102</v>
       </c>
-      <c r="B102" s="46" t="s">
+      <c r="B102" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C102" s="42" t="s">
+      <c r="C102" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D102" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E102" s="11" t="s">
+      <c r="D102" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E102" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="45">
+      <c r="A103" s="43">
         <v>103</v>
       </c>
-      <c r="B103" s="46" t="s">
+      <c r="B103" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C103" s="42" t="s">
+      <c r="C103" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="D103" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E103" s="11" t="s">
+      <c r="E103" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="45">
+      <c r="A104" s="43">
         <v>104</v>
       </c>
-      <c r="B104" s="46" t="s">
+      <c r="B104" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C104" s="42" t="s">
+      <c r="C104" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="E104" s="11" t="s">
+      <c r="E104" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="45">
+      <c r="A105" s="43">
         <v>105</v>
       </c>
-      <c r="B105" s="46" t="s">
+      <c r="B105" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C105" s="42" t="s">
+      <c r="C105" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D105" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E105" s="11" t="s">
+      <c r="D105" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" s="46" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="45">
+      <c r="A106" s="43">
         <v>106</v>
       </c>
-      <c r="B106" s="46" t="s">
+      <c r="B106" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C106" s="42" t="s">
+      <c r="C106" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E106" s="11" t="s">
+      <c r="E106" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="45">
+      <c r="A107" s="43">
         <v>107</v>
       </c>
-      <c r="B107" s="46" t="s">
+      <c r="B107" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C107" s="42" t="s">
+      <c r="C107" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D107" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E107" s="11" t="s">
+      <c r="E107" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="45">
+      <c r="A108" s="43">
         <v>108</v>
       </c>
-      <c r="B108" s="46" t="s">
+      <c r="B108" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C108" s="42" t="s">
+      <c r="C108" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E108" s="11" t="s">
+      <c r="E108" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="45">
+      <c r="A109" s="43">
         <v>109</v>
       </c>
-      <c r="B109" s="46" t="s">
+      <c r="B109" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C109" s="42" t="s">
+      <c r="C109" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="E109" s="11" t="s">
+      <c r="E109" s="46" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="45">
+      <c r="A110" s="43">
         <v>110</v>
       </c>
-      <c r="B110" s="46" t="s">
+      <c r="B110" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C110" s="42" t="s">
+      <c r="C110" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E110" s="11" t="s">
+      <c r="E110" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="45">
+      <c r="A111" s="43">
         <v>111</v>
       </c>
-      <c r="B111" s="46" t="s">
+      <c r="B111" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C111" s="42" t="s">
+      <c r="C111" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="D111" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E111" s="11" t="s">
+      <c r="E111" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="45">
+      <c r="A112" s="43">
         <v>112</v>
       </c>
-      <c r="B112" s="46" t="s">
+      <c r="B112" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C112" s="48" t="s">
+      <c r="C112" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D112" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="E112" s="11" t="s">
+      <c r="E112" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="45">
+      <c r="A113" s="43">
         <v>113</v>
       </c>
-      <c r="B113" s="46" t="s">
+      <c r="B113" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C113" s="48" t="s">
+      <c r="C113" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D113" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E113" s="11" t="s">
+      <c r="E113" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="45">
+      <c r="A114" s="43">
         <v>114</v>
       </c>
-      <c r="B114" s="46" t="s">
+      <c r="B114" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C114" s="48" t="s">
+      <c r="C114" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="E114" s="11" t="s">
+      <c r="E114" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="45">
+      <c r="A115" s="43">
         <v>115</v>
       </c>
-      <c r="B115" s="46" t="s">
+      <c r="B115" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C115" s="48" t="s">
+      <c r="C115" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="E115" s="11" t="s">
+      <c r="E115" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="45">
+      <c r="A116" s="43">
         <v>116</v>
       </c>
-      <c r="B116" s="46" t="s">
+      <c r="B116" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C116" s="48" t="s">
+      <c r="C116" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="E116" s="11" t="s">
+      <c r="E116" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="45">
+      <c r="A117" s="43">
         <v>117</v>
       </c>
-      <c r="B117" s="46" t="s">
+      <c r="B117" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C117" s="14" t="s">
+      <c r="C117" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="E117" s="11" t="s">
+      <c r="E117" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="45">
+      <c r="A118" s="43">
         <v>118</v>
       </c>
-      <c r="B118" s="46" t="s">
+      <c r="B118" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C118" s="14" t="s">
+      <c r="C118" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="E118" s="11" t="s">
+      <c r="E118" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="45">
+      <c r="A119" s="43">
         <v>119</v>
       </c>
-      <c r="B119" s="46" t="s">
+      <c r="B119" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C119" s="14" t="s">
+      <c r="C119" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D119" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="E119" s="11" t="s">
+      <c r="E119" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="45">
+      <c r="A120" s="43">
         <v>120</v>
       </c>
-      <c r="B120" s="46" t="s">
+      <c r="B120" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C120" s="14" t="s">
+      <c r="C120" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="D120" s="19" t="s">
+      <c r="D120" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E120" s="11" t="s">
+      <c r="E120" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="45">
+      <c r="A121" s="43">
         <v>121</v>
       </c>
-      <c r="B121" s="46" t="s">
+      <c r="B121" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="C121" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D121" s="19" t="s">
+      <c r="D121" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="E121" s="11" t="s">
+      <c r="E121" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="45">
+      <c r="A122" s="43">
         <v>122</v>
       </c>
-      <c r="B122" s="46" t="s">
+      <c r="B122" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C122" s="14" t="s">
+      <c r="C122" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="D122" s="19" t="s">
+      <c r="D122" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="E122" s="11" t="s">
+      <c r="E122" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="45">
+      <c r="A123" s="43">
         <v>123</v>
       </c>
-      <c r="B123" s="46" t="s">
+      <c r="B123" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C123" s="43" t="s">
+      <c r="C123" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D123" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="E123" s="11" t="s">
+      <c r="E123" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="45">
+      <c r="A124" s="43">
         <v>124</v>
       </c>
-      <c r="B124" s="46" t="s">
+      <c r="B124" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C124" s="43" t="s">
+      <c r="C124" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D124" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="E124" s="11" t="s">
+      <c r="E124" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="45">
+      <c r="A125" s="43">
         <v>125</v>
       </c>
-      <c r="B125" s="46" t="s">
+      <c r="B125" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C125" s="43" t="s">
+      <c r="C125" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D125" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="E125" s="11" t="s">
+      <c r="E125" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="45">
+      <c r="A126" s="43">
         <v>126</v>
       </c>
-      <c r="B126" s="46" t="s">
+      <c r="B126" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C126" s="43" t="s">
+      <c r="C126" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="D126" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="E126" s="11" t="s">
+      <c r="E126" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="45">
+      <c r="A127" s="43">
         <v>127</v>
       </c>
-      <c r="B127" s="46" t="s">
+      <c r="B127" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C127" s="43" t="s">
+      <c r="C127" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="D127" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="E127" s="11" t="s">
+      <c r="E127" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="45">
+      <c r="A128" s="43">
         <v>128</v>
       </c>
-      <c r="B128" s="46" t="s">
+      <c r="B128" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C128" s="43" t="s">
+      <c r="C128" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D128" s="10" t="s">
+      <c r="D128" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="E128" s="11" t="s">
+      <c r="E128" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="45">
+      <c r="A129" s="43">
         <v>129</v>
       </c>
-      <c r="B129" s="46" t="s">
+      <c r="B129" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C129" s="43" t="s">
+      <c r="C129" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="D129" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="E129" s="11" t="s">
+      <c r="E129" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="45">
+      <c r="A130" s="43">
         <v>130</v>
       </c>
-      <c r="B130" s="46" t="s">
+      <c r="B130" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C130" s="43" t="s">
+      <c r="C130" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D130" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="E130" s="11" t="s">
+      <c r="E130" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="45">
+      <c r="A131" s="43">
         <v>131</v>
       </c>
-      <c r="B131" s="46" t="s">
+      <c r="B131" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C131" s="43" t="s">
+      <c r="C131" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D131" s="10" t="s">
+      <c r="D131" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="E131" s="11" t="s">
+      <c r="E131" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="45">
+      <c r="A132" s="43">
         <v>132</v>
       </c>
-      <c r="B132" s="46" t="s">
+      <c r="B132" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C132" s="43" t="s">
+      <c r="C132" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D132" s="10" t="s">
+      <c r="D132" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="E132" s="11" t="s">
+      <c r="E132" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="45">
+      <c r="A133" s="43">
         <v>133</v>
       </c>
-      <c r="B133" s="46" t="s">
+      <c r="B133" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C133" s="43" t="s">
+      <c r="C133" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D133" s="15" t="s">
+      <c r="D133" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="E133" s="11" t="s">
+      <c r="E133" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="45">
+      <c r="A134" s="43">
         <v>134</v>
       </c>
-      <c r="B134" s="46" t="s">
+      <c r="B134" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C134" s="43" t="s">
+      <c r="C134" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="D134" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="E134" s="11" t="s">
+      <c r="E134" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="45">
+      <c r="A135" s="43">
         <v>135</v>
       </c>
-      <c r="B135" s="46" t="s">
+      <c r="B135" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C135" s="43" t="s">
+      <c r="C135" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D135" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="E135" s="11" t="s">
+      <c r="E135" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="45">
+      <c r="A136" s="43">
         <v>136</v>
       </c>
-      <c r="B136" s="46" t="s">
+      <c r="B136" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C136" s="43" t="s">
+      <c r="C136" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="D136" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="E136" s="11" t="s">
+      <c r="E136" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="45">
+      <c r="A137" s="43">
         <v>137</v>
       </c>
-      <c r="B137" s="46" t="s">
+      <c r="B137" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C137" s="43" t="s">
+      <c r="C137" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D137" s="8" t="s">
+      <c r="D137" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="E137" s="11" t="s">
+      <c r="E137" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="45">
+      <c r="A138" s="43">
         <v>138</v>
       </c>
-      <c r="B138" s="46" t="s">
+      <c r="B138" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C138" s="43" t="s">
+      <c r="C138" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D138" s="8" t="s">
+      <c r="D138" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="E138" s="11" t="s">
+      <c r="E138" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="45">
+      <c r="A139" s="43">
         <v>139</v>
       </c>
-      <c r="B139" s="46" t="s">
+      <c r="B139" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C139" s="43" t="s">
+      <c r="C139" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D139" s="8" t="s">
+      <c r="D139" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="E139" s="11" t="s">
+      <c r="E139" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="45">
+      <c r="A140" s="43">
         <v>140</v>
       </c>
-      <c r="B140" s="46" t="s">
+      <c r="B140" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C140" s="43" t="s">
+      <c r="C140" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="D140" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="E140" s="11" t="s">
+      <c r="E140" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="45">
+      <c r="A141" s="43">
         <v>141</v>
       </c>
-      <c r="B141" s="46" t="s">
+      <c r="B141" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C141" s="43" t="s">
+      <c r="C141" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="D141" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="E141" s="11" t="s">
+      <c r="E141" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="45">
+      <c r="A142" s="43">
         <v>142</v>
       </c>
-      <c r="B142" s="46" t="s">
+      <c r="B142" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C142" s="43" t="s">
+      <c r="C142" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D142" s="10" t="s">
+      <c r="D142" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="E142" s="11" t="s">
+      <c r="E142" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="45">
+      <c r="A143" s="43">
         <v>143</v>
       </c>
-      <c r="B143" s="46" t="s">
+      <c r="B143" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C143" s="42" t="s">
+      <c r="C143" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D143" s="9" t="s">
+      <c r="D143" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="E143" s="11" t="s">
+      <c r="E143" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="45">
+      <c r="A144" s="43">
         <v>144</v>
       </c>
-      <c r="B144" s="46" t="s">
+      <c r="B144" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C144" s="42" t="s">
+      <c r="C144" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D144" s="9" t="s">
+      <c r="D144" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="E144" s="11" t="s">
+      <c r="E144" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="45">
+      <c r="A145" s="43">
         <v>145</v>
       </c>
-      <c r="B145" s="46" t="s">
+      <c r="B145" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C145" s="42" t="s">
+      <c r="C145" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D145" s="9" t="s">
+      <c r="D145" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="E145" s="11" t="s">
+      <c r="E145" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="45">
+      <c r="A146" s="43">
         <v>146</v>
       </c>
-      <c r="B146" s="46" t="s">
+      <c r="B146" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C146" s="42" t="s">
+      <c r="C146" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D146" s="9" t="s">
+      <c r="D146" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="E146" s="11" t="s">
+      <c r="E146" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="45">
+      <c r="A147" s="43">
         <v>147</v>
       </c>
-      <c r="B147" s="46" t="s">
+      <c r="B147" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C147" s="42" t="s">
+      <c r="C147" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D147" s="9" t="s">
+      <c r="D147" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="E147" s="11" t="s">
+      <c r="E147" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="45">
+      <c r="A148" s="43">
         <v>148</v>
       </c>
-      <c r="B148" s="46" t="s">
+      <c r="B148" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C148" s="42" t="s">
+      <c r="C148" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D148" s="9" t="s">
+      <c r="D148" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="E148" s="11" t="s">
+      <c r="E148" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="45">
+      <c r="A149" s="43">
         <v>149</v>
       </c>
-      <c r="B149" s="46" t="s">
+      <c r="B149" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C149" s="42" t="s">
+      <c r="C149" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D149" s="9" t="s">
+      <c r="D149" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="E149" s="11" t="s">
+      <c r="E149" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="45">
+      <c r="A150" s="43">
         <v>150</v>
       </c>
-      <c r="B150" s="46" t="s">
+      <c r="B150" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C150" s="42" t="s">
+      <c r="C150" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D150" s="9" t="s">
+      <c r="D150" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="E150" s="11" t="s">
+      <c r="E150" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="45">
+      <c r="A151" s="43">
         <v>151</v>
       </c>
-      <c r="B151" s="46" t="s">
+      <c r="B151" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C151" s="42" t="s">
+      <c r="C151" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="D151" s="9" t="s">
+      <c r="D151" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="E151" s="11" t="s">
+      <c r="E151" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="45">
+      <c r="A152" s="43">
         <v>152</v>
       </c>
-      <c r="B152" s="46" t="s">
+      <c r="B152" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C152" s="42" t="s">
+      <c r="C152" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="D152" s="9" t="s">
+      <c r="D152" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="E152" s="11" t="s">
+      <c r="E152" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="45">
+      <c r="A153" s="43">
         <v>153</v>
       </c>
-      <c r="B153" s="46" t="s">
+      <c r="B153" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C153" s="42" t="s">
+      <c r="C153" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="D153" s="20" t="s">
+      <c r="D153" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="E153" s="11" t="s">
+      <c r="E153" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="45">
+      <c r="A154" s="43">
         <v>154</v>
       </c>
-      <c r="B154" s="46" t="s">
+      <c r="B154" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C154" s="42" t="s">
+      <c r="C154" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="D154" s="9" t="s">
+      <c r="D154" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="E154" s="11" t="s">
+      <c r="E154" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="45">
+      <c r="A155" s="43">
         <v>155</v>
       </c>
-      <c r="B155" s="46" t="s">
+      <c r="B155" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C155" s="42" t="s">
+      <c r="C155" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="D155" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="E155" s="11" t="s">
+      <c r="E155" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="45">
+      <c r="A156" s="43">
         <v>156</v>
       </c>
-      <c r="B156" s="46" t="s">
+      <c r="B156" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C156" s="42" t="s">
+      <c r="C156" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="D156" s="9" t="s">
+      <c r="D156" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="E156" s="11" t="s">
+      <c r="E156" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="45">
+      <c r="A157" s="43">
         <v>157</v>
       </c>
-      <c r="B157" s="46" t="s">
+      <c r="B157" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C157" s="42" t="s">
+      <c r="C157" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="D157" s="9" t="s">
+      <c r="D157" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="E157" s="11" t="s">
+      <c r="E157" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="45">
+      <c r="A158" s="43">
         <v>158</v>
       </c>
-      <c r="B158" s="46" t="s">
+      <c r="B158" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C158" s="42" t="s">
+      <c r="C158" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="D158" s="9" t="s">
+      <c r="D158" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="E158" s="11" t="s">
+      <c r="E158" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="45">
+      <c r="A159" s="43">
         <v>159</v>
       </c>
-      <c r="B159" s="46" t="s">
+      <c r="B159" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C159" s="42" t="s">
+      <c r="C159" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="D159" s="9" t="s">
+      <c r="D159" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="E159" s="11" t="s">
+      <c r="E159" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="45">
+      <c r="A160" s="43">
         <v>160</v>
       </c>
-      <c r="B160" s="46" t="s">
+      <c r="B160" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="C160" s="44" t="s">
+      <c r="C160" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="D160" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="E160" s="11" t="s">
+      <c r="E160" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="45">
+      <c r="A161" s="43">
         <v>161</v>
       </c>
-      <c r="B161" s="46" t="s">
+      <c r="B161" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="C161" s="44" t="s">
+      <c r="C161" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D161" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="E161" s="11" t="s">
+      <c r="E161" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="45">
+      <c r="A162" s="43">
         <v>162</v>
       </c>
-      <c r="B162" s="46" t="s">
+      <c r="B162" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="C162" s="44" t="s">
+      <c r="C162" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="D162" s="20" t="s">
+      <c r="D162" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="E162" s="11" t="s">
+      <c r="E162" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="45">
+      <c r="A163" s="43">
         <v>163</v>
       </c>
-      <c r="B163" s="46" t="s">
+      <c r="B163" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="C163" s="44" t="s">
+      <c r="C163" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="D163" s="20" t="s">
+      <c r="D163" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="E163" s="11" t="s">
+      <c r="E163" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="45">
+      <c r="A164" s="43">
         <v>164</v>
       </c>
-      <c r="B164" s="46" t="s">
+      <c r="B164" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="C164" s="44" t="s">
+      <c r="C164" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="D164" s="20" t="s">
+      <c r="D164" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="E164" s="11" t="s">
+      <c r="E164" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="45">
+      <c r="A165" s="43">
         <v>165</v>
       </c>
-      <c r="B165" s="46" t="s">
+      <c r="B165" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="C165" s="44" t="s">
+      <c r="C165" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="D165" s="20" t="s">
+      <c r="D165" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="E165" s="11" t="s">
+      <c r="E165" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="45">
+      <c r="A166" s="43">
         <v>166</v>
       </c>
-      <c r="B166" s="46" t="s">
+      <c r="B166" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="C166" s="44" t="s">
+      <c r="C166" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="D166" s="21" t="s">
+      <c r="D166" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="E166" s="11" t="s">
+      <c r="E166" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="45">
+      <c r="A167" s="43">
         <v>167</v>
       </c>
-      <c r="B167" s="46" t="s">
+      <c r="B167" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="C167" s="44" t="s">
+      <c r="C167" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="D167" s="21" t="s">
+      <c r="D167" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="E167" s="11" t="s">
+      <c r="E167" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="45">
+      <c r="A168" s="43">
         <v>168</v>
       </c>
-      <c r="B168" s="46" t="s">
+      <c r="B168" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="C168" s="23" t="s">
+      <c r="C168" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="D168" s="19" t="s">
+      <c r="D168" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="E168" s="11" t="s">
+      <c r="E168" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="45">
+      <c r="A169" s="43">
         <v>169</v>
       </c>
-      <c r="B169" s="46" t="s">
+      <c r="B169" s="43" t="s">
         <v>190</v>
       </c>
       <c r="C169" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D169" s="9" t="s">
+      <c r="D169" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="E169" s="11" t="s">
+      <c r="E169" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="45">
+      <c r="A170" s="43">
         <v>170</v>
       </c>
-      <c r="B170" s="46" t="s">
+      <c r="B170" s="43" t="s">
         <v>190</v>
       </c>
       <c r="C170" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D170" s="9" t="s">
+      <c r="D170" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="E170" s="11" t="s">
+      <c r="E170" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="45">
+      <c r="A171" s="43">
         <v>171</v>
       </c>
-      <c r="B171" s="46" t="s">
+      <c r="B171" s="43" t="s">
         <v>190</v>
       </c>
       <c r="C171" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D171" s="9" t="s">
+      <c r="D171" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="E171" s="11" t="s">
+      <c r="E171" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="45">
+      <c r="A172" s="43">
         <v>172</v>
       </c>
-      <c r="B172" s="46" t="s">
+      <c r="B172" s="43" t="s">
         <v>190</v>
       </c>
       <c r="C172" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="D172" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="E172" s="11" t="s">
+      <c r="E172" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="45">
+      <c r="A173" s="43">
         <v>173</v>
       </c>
-      <c r="B173" s="46" t="s">
+      <c r="B173" s="43" t="s">
         <v>190</v>
       </c>
       <c r="C173" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D173" s="20" t="s">
+      <c r="D173" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="E173" s="11" t="s">
+      <c r="E173" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="45">
+      <c r="A174" s="43">
         <v>174</v>
       </c>
-      <c r="B174" s="46" t="s">
+      <c r="B174" s="43" t="s">
         <v>190</v>
       </c>
       <c r="C174" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D174" s="9" t="s">
+      <c r="D174" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="E174" s="11" t="s">
+      <c r="E174" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="45">
+      <c r="A175" s="43">
         <v>175</v>
       </c>
-      <c r="B175" s="46" t="s">
+      <c r="B175" s="43" t="s">
         <v>190</v>
       </c>
       <c r="C175" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D175" s="9" t="s">
+      <c r="D175" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="E175" s="11" t="s">
+      <c r="E175" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="45">
+      <c r="A176" s="43">
         <v>176</v>
       </c>
-      <c r="B176" s="46" t="s">
+      <c r="B176" s="43" t="s">
         <v>190</v>
       </c>
       <c r="C176" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D176" s="19" t="s">
+      <c r="D176" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="E176" s="11" t="s">
+      <c r="E176" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="45">
+      <c r="A177" s="43">
         <v>177</v>
       </c>
-      <c r="B177" s="46" t="s">
+      <c r="B177" s="43" t="s">
         <v>190</v>
       </c>
       <c r="C177" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D177" s="22" t="s">
+      <c r="D177" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="E177" s="11" t="s">
+      <c r="E177" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="45">
+      <c r="A178" s="43">
         <v>178</v>
       </c>
-      <c r="B178" s="46" t="s">
+      <c r="B178" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="C178" s="49" t="s">
+      <c r="C178" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="D178" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="E178" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="43">
+        <v>179</v>
+      </c>
+      <c r="B179" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="C179" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="D179" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="E179" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="43">
+        <v>180</v>
+      </c>
+      <c r="B180" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="C180" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D178" s="22" t="s">
+      <c r="D180" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="E178" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="45">
+      <c r="E180" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="43">
+        <v>181</v>
+      </c>
+      <c r="B181" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="C181" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="D181" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="E181" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="43">
+        <v>182</v>
+      </c>
+      <c r="B182" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="C182" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="D182" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="E182" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A183" s="43">
+        <v>183</v>
+      </c>
+      <c r="B183" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="C183" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="B179" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="C179" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D179" s="19" t="s">
+      <c r="D183" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="E179" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="45">
+      <c r="E183" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A184" s="43">
+        <v>184</v>
+      </c>
+      <c r="B184" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="C184" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="B180" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="C180" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D180" s="19" t="s">
+      <c r="D184" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="E180" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="45">
-        <v>181</v>
-      </c>
-      <c r="B181" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="C181" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="D181" s="19" t="s">
+      <c r="E184" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="43">
+        <v>185</v>
+      </c>
+      <c r="B185" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C185" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="D185" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="E181" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="45">
-        <v>182</v>
-      </c>
-      <c r="B182" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="C182" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D182" s="19" t="s">
+      <c r="E185" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="43">
+        <v>186</v>
+      </c>
+      <c r="B186" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C186" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="D186" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="E182" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="45">
-        <v>183</v>
-      </c>
-      <c r="B183" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C183" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="D183" s="19" t="s">
+      <c r="E186" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="43">
+        <v>187</v>
+      </c>
+      <c r="B187" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="C187" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="D187" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="E183" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="45">
-        <v>184</v>
-      </c>
-      <c r="B184" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C184" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="D184" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="E184" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="45">
-        <v>185</v>
-      </c>
-      <c r="B185" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C185" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="D185" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="E185" s="11" t="s">
+      <c r="E187" s="46" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C47:C48"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
